--- a/pa-temp-fix-system.com/php/export/1.xlsx
+++ b/pa-temp-fix-system.com/php/export/1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>batchName</t>
   </si>
@@ -35,25 +35,19 @@
     <t>_id</t>
   </si>
   <si>
-    <t>DPMO250716011</t>
+    <t>QD202506250007</t>
   </si>
   <si>
-    <t>DPMO250716012</t>
+    <t>QD202507010011</t>
   </si>
   <si>
-    <t>DPMO250716016</t>
+    <t>QD202506270014</t>
   </si>
   <si>
-    <t>DPMO250716010</t>
+    <t>QD202507040002</t>
   </si>
   <si>
-    <t>DPMO250715010</t>
-  </si>
-  <si>
-    <t>DPMO250716002</t>
-  </si>
-  <si>
-    <t>DPMO250716009</t>
+    <t>QD202507080007</t>
   </si>
 </sst>
 </file>
@@ -1203,13 +1197,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5333333333333" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.5333333333333" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="37.5714285714286" customWidth="1"/>
@@ -1248,16 +1242,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/pa-temp-fix-system.com/php/export/1.xlsx
+++ b/pa-temp-fix-system.com/php/export/1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$85</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,27 +30,363 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>batchName</t>
-  </si>
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>QD202506250007</t>
-  </si>
-  <si>
-    <t>QD202507010011</t>
-  </si>
-  <si>
-    <t>QD202506270014</t>
-  </si>
-  <si>
-    <t>QD202507040002</t>
-  </si>
-  <si>
-    <t>QD202507080007</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="119">
+  <si>
+    <t>CE单</t>
+  </si>
+  <si>
+    <t>SKUID</t>
+  </si>
+  <si>
+    <t>原负责人</t>
+  </si>
+  <si>
+    <t>新负责人</t>
+  </si>
+  <si>
+    <t>CE202508300102</t>
+  </si>
+  <si>
+    <t>a25083000ux0146</t>
+  </si>
+  <si>
+    <t>mashengnan</t>
+  </si>
+  <si>
+    <t>liangxihao</t>
+  </si>
+  <si>
+    <t>a25083000ux0145</t>
+  </si>
+  <si>
+    <t>CE202510220165</t>
+  </si>
+  <si>
+    <t>a25102000ux0144</t>
+  </si>
+  <si>
+    <t>liuzhenni</t>
+  </si>
+  <si>
+    <t>CE202507280150</t>
+  </si>
+  <si>
+    <t>a25072800ux2043</t>
+  </si>
+  <si>
+    <t>CE202508200164</t>
+  </si>
+  <si>
+    <t>a25082000ux0341</t>
+  </si>
+  <si>
+    <t>a25082000ux0347</t>
+  </si>
+  <si>
+    <t>CE202508250017</t>
+  </si>
+  <si>
+    <t>a25082500ux0036</t>
+  </si>
+  <si>
+    <t>a25082500ux0037</t>
+  </si>
+  <si>
+    <t>CE202508290125</t>
+  </si>
+  <si>
+    <t>a25082700ux1471</t>
+  </si>
+  <si>
+    <t>a25082700ux1479</t>
+  </si>
+  <si>
+    <t>CE202508290124</t>
+  </si>
+  <si>
+    <t>a25082700ux1485</t>
+  </si>
+  <si>
+    <t>a25082700ux1492</t>
+  </si>
+  <si>
+    <t>a25082700ux1498</t>
+  </si>
+  <si>
+    <t>a25082700ux1518</t>
+  </si>
+  <si>
+    <t>a25082700ux1527</t>
+  </si>
+  <si>
+    <t>a25082700ux1529</t>
+  </si>
+  <si>
+    <t>a25082700ux1537</t>
+  </si>
+  <si>
+    <t>a25082700ux1541</t>
+  </si>
+  <si>
+    <t>a25082700ux1542</t>
+  </si>
+  <si>
+    <t>a25082700ux1545</t>
+  </si>
+  <si>
+    <t>a25082700ux1548</t>
+  </si>
+  <si>
+    <t>CE202509150172</t>
+  </si>
+  <si>
+    <t>a25091500ux2833</t>
+  </si>
+  <si>
+    <t>CE202510100014</t>
+  </si>
+  <si>
+    <t>a25101000ux0290</t>
+  </si>
+  <si>
+    <t>CE202510150089</t>
+  </si>
+  <si>
+    <t>a25101000ux0421</t>
+  </si>
+  <si>
+    <t>a25101000ux0424</t>
+  </si>
+  <si>
+    <t>a25101000ux0426</t>
+  </si>
+  <si>
+    <t>a25101000ux0427</t>
+  </si>
+  <si>
+    <t>a25101000ux0429</t>
+  </si>
+  <si>
+    <t>a25101000ux0431</t>
+  </si>
+  <si>
+    <t>a25101000ux0433</t>
+  </si>
+  <si>
+    <t>a25101000ux0434</t>
+  </si>
+  <si>
+    <t>a25101000ux0437</t>
+  </si>
+  <si>
+    <t>a25101000ux0438</t>
+  </si>
+  <si>
+    <t>a25101000ux0440</t>
+  </si>
+  <si>
+    <t>a25101000ux0441</t>
+  </si>
+  <si>
+    <t>a25101000ux0442</t>
+  </si>
+  <si>
+    <t>a25101000ux0443</t>
+  </si>
+  <si>
+    <t>a25101000ux0447</t>
+  </si>
+  <si>
+    <t>a25101000ux0449</t>
+  </si>
+  <si>
+    <t>a25101000ux0450</t>
+  </si>
+  <si>
+    <t>a25101000ux0451</t>
+  </si>
+  <si>
+    <t>a25101000ux0452</t>
+  </si>
+  <si>
+    <t>CE202510290064</t>
+  </si>
+  <si>
+    <t>a25102100ux0493</t>
+  </si>
+  <si>
+    <t>CE202509290055</t>
+  </si>
+  <si>
+    <t>a25092600ux0213</t>
+  </si>
+  <si>
+    <t>CE202509220059</t>
+  </si>
+  <si>
+    <t>a25091700ux0703</t>
+  </si>
+  <si>
+    <t>a25091700ux0705</t>
+  </si>
+  <si>
+    <t>CE202510100041</t>
+  </si>
+  <si>
+    <t>a25093000ux0212</t>
+  </si>
+  <si>
+    <t>CE202510140124</t>
+  </si>
+  <si>
+    <t>a25101400ux0948</t>
+  </si>
+  <si>
+    <t>a25101400ux0950</t>
+  </si>
+  <si>
+    <t>CE202509300011</t>
+  </si>
+  <si>
+    <t>a25093000ux0237</t>
+  </si>
+  <si>
+    <t>CE202507240128</t>
+  </si>
+  <si>
+    <t>a25072200ux0190</t>
+  </si>
+  <si>
+    <t>CE202510180097</t>
+  </si>
+  <si>
+    <t>a25101800ux1484</t>
+  </si>
+  <si>
+    <t>CE202508250046</t>
+  </si>
+  <si>
+    <t>a25082500ux0136</t>
+  </si>
+  <si>
+    <t>a25082500ux0137</t>
+  </si>
+  <si>
+    <t>a25082500ux0141</t>
+  </si>
+  <si>
+    <t>a25082500ux0142</t>
+  </si>
+  <si>
+    <t>CE202510300031</t>
+  </si>
+  <si>
+    <t>a25103000ux0188</t>
+  </si>
+  <si>
+    <t>CE202510070068</t>
+  </si>
+  <si>
+    <t>a25100700ux1869</t>
+  </si>
+  <si>
+    <t>a25100700ux1870</t>
+  </si>
+  <si>
+    <t>CE202508220276</t>
+  </si>
+  <si>
+    <t>a25082200ux1313</t>
+  </si>
+  <si>
+    <t>CE202510110014</t>
+  </si>
+  <si>
+    <t>a25101100ux0148</t>
+  </si>
+  <si>
+    <t>CE202510290049</t>
+  </si>
+  <si>
+    <t>a25102100ux0489</t>
+  </si>
+  <si>
+    <t>a25102100ux0491</t>
+  </si>
+  <si>
+    <t>CE202510270064</t>
+  </si>
+  <si>
+    <t>a25102700ux0416</t>
+  </si>
+  <si>
+    <t>a25102700ux0417</t>
+  </si>
+  <si>
+    <t>a25102700ux0418</t>
+  </si>
+  <si>
+    <t>a25102700ux0419</t>
+  </si>
+  <si>
+    <t>a25102700ux0420</t>
+  </si>
+  <si>
+    <t>a25102700ux0421</t>
+  </si>
+  <si>
+    <t>a25102700ux0422</t>
+  </si>
+  <si>
+    <t>a25102700ux0423</t>
+  </si>
+  <si>
+    <t>a25102700ux0424</t>
+  </si>
+  <si>
+    <t>CE202508200085</t>
+  </si>
+  <si>
+    <t>a25081400ux0351</t>
+  </si>
+  <si>
+    <t>CE202510310130</t>
+  </si>
+  <si>
+    <t>a25103100ux0794</t>
+  </si>
+  <si>
+    <t>a25103100ux0795</t>
+  </si>
+  <si>
+    <t>CE202510310144</t>
+  </si>
+  <si>
+    <t>a25103100ux1576</t>
+  </si>
+  <si>
+    <t>a25103100ux1577</t>
+  </si>
+  <si>
+    <t>a25103100ux1578</t>
+  </si>
+  <si>
+    <t>a25103100ux1579</t>
+  </si>
+  <si>
+    <t>a25103100ux1580</t>
+  </si>
+  <si>
+    <t>a25103100ux1581</t>
+  </si>
+  <si>
+    <t>a25103100ux1582</t>
+  </si>
+  <si>
+    <t>a25103100ux1583</t>
+  </si>
+  <si>
+    <t>a25103100ux1584</t>
   </si>
 </sst>
 </file>
@@ -60,10 +399,29 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -223,7 +581,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +590,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -417,12 +781,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,144 +905,158 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1197,52 +1590,1213 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5333333333333" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.5333333333333" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="37.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="14.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>6</v>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D85" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
